--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t>headers</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -418,10 +418,6 @@
   </si>
   <si>
     <t>无法使用提供的认证信息登录</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id': 1, 'username': 'python'</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -523,14 +519,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>order_id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>/authorizations/</t>
   </si>
   <si>
@@ -544,10 +532,6 @@
   </si>
   <si>
     <t>/orders/</t>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>select id,username,mobile,email from tb_users where username='python'</t>
@@ -621,18 +605,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -645,15 +621,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>'username': 'python', 'user_id': 1</t>
   </si>
   <si>
     <t>y</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>n</t>
+    <t>服务器内部错误</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1751,15 +1726,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -1767,6 +1733,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -1819,7 +1794,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:L20" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:L20" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L20"/>
   <tableColumns count="12">
     <tableColumn id="1" name="用例ID" dataDxfId="11"/>
@@ -2105,7 +2080,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2181,7 +2156,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
@@ -2197,7 +2172,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="11"/>
       <c r="L2" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -2217,7 +2192,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
@@ -2235,7 +2210,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="11"/>
       <c r="L3" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -2255,7 +2230,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
@@ -2273,7 +2248,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="11"/>
       <c r="L4" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2293,7 +2268,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
@@ -2306,12 +2281,12 @@
         <v>24</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="11"/>
       <c r="L5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2331,7 +2306,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
@@ -2341,7 +2316,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>54</v>
@@ -2349,7 +2324,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="11"/>
       <c r="L6" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -2369,7 +2344,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
@@ -2383,7 +2358,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="11"/>
       <c r="L7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4">
@@ -2402,7 +2377,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>16</v>
@@ -2418,22 +2393,22 @@
       <c r="J8" s="4"/>
       <c r="K8" s="11"/>
       <c r="L8" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="4">
         <v>200</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="71.25">
       <c r="A9" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>34</v>
@@ -2442,23 +2417,23 @@
         <v>35</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="H9" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="11"/>
       <c r="L9" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2469,39 +2444,39 @@
     </row>
     <row r="10" spans="1:16" ht="28.5">
       <c r="A10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="11"/>
       <c r="L10" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4">
@@ -2511,43 +2486,43 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="11"/>
       <c r="L11" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4">
-        <v>201</v>
+        <v>507</v>
       </c>
       <c r="P11" s="4"/>
     </row>
@@ -2592,7 +2567,7 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2612,7 +2587,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2632,7 +2607,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2652,7 +2627,7 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -2661,7 +2636,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="12"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -2679,7 +2654,11 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="12"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="9"/>
@@ -2693,7 +2672,11 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="12"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="9"/>
@@ -2707,7 +2690,11 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="12"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
   <si>
     <t>headers</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -613,22 +613,26 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>{"username":"python","password":"test123"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>'username': 'python', 'user_id': 1</t>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器内部错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"python","password":"test123"}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>'username': 'python', 'user_id': 1</t>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器内部错误</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2080,7 +2084,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2316,7 +2320,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>54</v>
@@ -2396,7 +2400,7 @@
         <v>86</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="4">
@@ -2515,10 +2519,10 @@
       <c r="J11" s="4"/>
       <c r="K11" s="11"/>
       <c r="L11" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4">
